--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 응용 프로그램 소유자와 같은 주요 역할에 Azure 사용자 지정 역할을 사용하는 것이 좋습니다.</t>
+          <t>Azure 플랫폼 소유자, 네트워크 관리, 보안 작업, 구독 소유자, 응용 프로그램 소유자와 같은 주요 역할에 Azure 사용정 역할을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>트래픽을 미러링하는 사용자 지정 솔루션을 개발하지 마십시오. 이 접근 방식은 소규모 시나리오에서 적합할 수 있지만 복잡성과 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장하지 않습니다.</t>
+          <t>트래픽을 미러링하는 사용정 솔루션을 개발하지 마십시오. 이 접근 방식은 소규모 시나리오에서 적합할 수 있지만 복잡성과 발생할 수 있는 지원 가능성 문제로 인해 대규모로 권장하지 않습니다.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>키, 비밀 및 인증서를 특수 사용자 지정 Azure AD(Active Directory) 역할로 영구적으로 삭제하도록 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
+          <t>키, 비밀 및 인증서를 특수 사용정 Azure AD(Active Directory) 역할로 영구적으로 삭제하도록 권한 부여를 제한하여 최소 권한 모델을 따릅니다.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -8965,15 +8965,45 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>보안, 거버넌스 및 규정 준수</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>올바르게 작업하십시오.</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-186e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
@@ -11035,7 +11065,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F173" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.ko.xlsx
+++ b/spreadsheet/lz_checklist.ko.xlsx
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>984a859c-772f-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
